--- a/data/anonymized/anonymized_data.xlsx
+++ b/data/anonymized/anonymized_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">m_sex</t>
   </si>
@@ -23,7 +23,7 @@
     <t xml:space="preserve">m_dob</t>
   </si>
   <si>
-    <t xml:space="preserve">zip</t>
+    <t xml:space="preserve">m_zip</t>
   </si>
   <si>
     <t xml:space="preserve">education</t>
@@ -50,13 +50,16 @@
     <t xml:space="preserve">Upper secondary education</t>
   </si>
   <si>
-    <t xml:space="preserve">Western Europe</t>
+    <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Divorced</t>
+    <t xml:space="preserve">Married/separated</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">Red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">1990s</t>
@@ -65,7 +68,7 @@
     <t xml:space="preserve">2400</t>
   </si>
   <si>
-    <t xml:space="preserve">Never married</t>
+    <t xml:space="preserve">Green</t>
   </si>
   <si>
     <t xml:space="preserve">1980s</t>
@@ -77,13 +80,10 @@
     <t xml:space="preserve">Vocational bachelors educations</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">Never married</t>
   </si>
   <si>
     <t xml:space="preserve">Primary education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Red</t>
   </si>
   <si>
     <t xml:space="preserve">1970s</t>
@@ -92,13 +92,10 @@
     <t xml:space="preserve">Vocational Education and Training (VET)</t>
   </si>
   <si>
-    <t xml:space="preserve">Married/separated</t>
-  </si>
-  <si>
     <t xml:space="preserve">Masters programmes</t>
   </si>
   <si>
-    <t xml:space="preserve">South East Asia</t>
+    <t xml:space="preserve">Other</t>
   </si>
   <si>
     <t xml:space="preserve">2300</t>
@@ -107,7 +104,7 @@
     <t xml:space="preserve">1950s</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Africa</t>
+    <t xml:space="preserve">Invalid vote</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;=1940s</t>
@@ -119,28 +116,16 @@
     <t xml:space="preserve">1960s</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid vote</t>
+    <t xml:space="preserve">Divorced</t>
   </si>
   <si>
     <t xml:space="preserve">Short cycle higher education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northeast Asia</t>
   </si>
   <si>
     <t xml:space="preserve">Not stated</t>
   </si>
   <si>
     <t xml:space="preserve">Bachelors programmes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Europe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mashriq</t>
   </si>
 </sst>
 </file>
@@ -526,16 +511,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -544,10 +529,10 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -558,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -578,28 +563,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -607,16 +592,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -625,12 +610,12 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -639,7 +624,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -648,10 +633,10 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -662,126 +647,122 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
         <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -789,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -804,36 +785,36 @@
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -844,33 +825,33 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
         <v>34</v>
       </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
       <c r="H15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -882,24 +863,24 @@
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
         <v>25</v>
@@ -908,36 +889,36 @@
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" t="s">
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -948,74 +929,74 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
       <c r="H19" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
         <v>22</v>
       </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -1023,51 +1004,51 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -1075,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>25</v>
@@ -1090,15 +1071,15 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -1107,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>25</v>
@@ -1116,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1130,62 +1111,62 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
       </c>
-      <c r="D27" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -1194,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1208,22 +1189,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1234,97 +1215,95 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D32"/>
       <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
         <v>22</v>
       </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
         <v>14</v>
@@ -1332,16 +1311,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
         <v>25</v>
@@ -1350,88 +1329,86 @@
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
         <v>19</v>
       </c>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>13</v>
-      </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
@@ -1442,48 +1419,48 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F38" t="s">
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1494,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E40" t="s">
         <v>25</v>
@@ -1506,15 +1483,15 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -1532,21 +1509,21 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
@@ -1558,10 +1535,10 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1572,22 +1549,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1598,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>25</v>
@@ -1610,10 +1587,10 @@
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H44" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
@@ -1621,25 +1598,25 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
@@ -1647,25 +1624,25 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" t="s">
-        <v>16</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>26</v>
-      </c>
       <c r="H46" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
@@ -1676,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1688,62 +1665,62 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B48" t="n">
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H49" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -1754,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
         <v>25</v>
@@ -1766,24 +1743,24 @@
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E51" t="s">
         <v>25</v>
@@ -1792,15 +1769,15 @@
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -1809,19 +1786,19 @@
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H52" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -1832,48 +1809,48 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H53" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
         <v>34</v>
       </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>13</v>
-      </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -1884,13 +1861,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F55" t="s">
         <v>12</v>
@@ -1899,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -1907,25 +1884,25 @@
         <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F56" t="s">
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -1942,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F57" t="s">
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -1962,22 +1939,22 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F58" t="s">
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -1988,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
@@ -2000,24 +1977,24 @@
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H59" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
@@ -2026,62 +2003,62 @@
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
         <v>22</v>
       </c>
-      <c r="F61" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" t="s">
-        <v>33</v>
-      </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
         <v>22</v>
       </c>
-      <c r="F62" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" t="s">
-        <v>17</v>
-      </c>
       <c r="H62" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
@@ -2092,10 +2069,10 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2104,10 +2081,10 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
@@ -2115,143 +2092,143 @@
         <v>8</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H66" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
         <v>21</v>
       </c>
-      <c r="B67" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" t="s">
-        <v>34</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
       <c r="F67" t="s">
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H68" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
         <v>25</v>
@@ -2260,10 +2237,10 @@
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -2271,7 +2248,7 @@
         <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
         <v>9</v>
@@ -2286,114 +2263,112 @@
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" t="s">
         <v>21</v>
       </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
       <c r="F71" t="s">
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H72" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D74"/>
       <c r="E74" t="s">
         <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
@@ -2401,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
@@ -2416,24 +2391,24 @@
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
@@ -2442,15 +2417,15 @@
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
@@ -2459,7 +2434,7 @@
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
@@ -2468,24 +2443,24 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2494,15 +2469,15 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
@@ -2514,82 +2489,80 @@
         <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H79" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F80" t="s">
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H80" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81" t="s">
         <v>21</v>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" t="s">
-        <v>29</v>
-      </c>
-      <c r="E81" t="s">
-        <v>20</v>
-      </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
         <v>25</v>
@@ -2598,10 +2571,10 @@
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
@@ -2609,13 +2582,13 @@
         <v>8</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E83" t="s">
         <v>25</v>
@@ -2624,15 +2597,15 @@
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H83" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -2641,59 +2614,59 @@
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" t="s">
         <v>21</v>
       </c>
-      <c r="B85" t="n">
-        <v>0</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>29</v>
-      </c>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H85" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E86" t="s">
         <v>25</v>
@@ -2702,10 +2675,10 @@
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H86" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2713,13 +2686,13 @@
         <v>8</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2728,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -2736,94 +2709,92 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H88" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" t="s">
+        <v>28</v>
+      </c>
+      <c r="E89" t="s">
+        <v>23</v>
+      </c>
+      <c r="F89" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
         <v>34</v>
       </c>
-      <c r="D89" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>26</v>
-      </c>
       <c r="H89" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B90" t="n">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
-      </c>
-      <c r="D90" t="s">
         <v>16</v>
       </c>
+      <c r="D90"/>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2832,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H91" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
@@ -2846,22 +2817,22 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F92" t="s">
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H92" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -2875,7 +2846,7 @@
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -2884,21 +2855,21 @@
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H93" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2910,24 +2881,24 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -2936,50 +2907,50 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F96" t="s">
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
         <v>25</v>
@@ -2988,27 +2959,27 @@
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H97" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F98" t="s">
         <v>12</v>
@@ -3017,7 +2988,7 @@
         <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99">
@@ -3028,10 +2999,10 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99" t="s">
         <v>25</v>
@@ -3040,10 +3011,10 @@
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H99" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
@@ -3054,22 +3025,20 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>30</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D100"/>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H100" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -3077,30 +3046,30 @@
         <v>8</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H101" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -3109,7 +3078,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3118,15 +3087,15 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -3135,16 +3104,16 @@
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -3152,28 +3121,28 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
         <v>21</v>
       </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="s">
-        <v>32</v>
-      </c>
-      <c r="D104" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" t="s">
-        <v>20</v>
-      </c>
       <c r="F104" t="s">
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H104" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105">
@@ -3181,25 +3150,25 @@
         <v>8</v>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>28</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
         <v>34</v>
       </c>
-      <c r="D105" t="s">
-        <v>29</v>
-      </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>33</v>
-      </c>
       <c r="H105" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106">
@@ -3207,25 +3176,25 @@
         <v>8</v>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
         <v>22</v>
       </c>
-      <c r="F106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" t="s">
-        <v>17</v>
-      </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107">
@@ -3236,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
         <v>25</v>
@@ -3251,7 +3220,7 @@
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
@@ -3259,13 +3228,13 @@
         <v>8</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E108" t="s">
         <v>25</v>
@@ -3274,15 +3243,15 @@
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -3291,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3300,36 +3269,36 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H109" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111">
@@ -3337,74 +3306,74 @@
         <v>8</v>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
         <v>22</v>
       </c>
-      <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>33</v>
-      </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B112" t="n">
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="s">
+        <v>33</v>
+      </c>
+      <c r="D113" t="s">
+        <v>20</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
         <v>34</v>
-      </c>
-      <c r="D113" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>26</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -3412,10 +3381,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -3430,10 +3399,10 @@
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115">
@@ -3444,10 +3413,10 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E115" t="s">
         <v>25</v>
@@ -3456,24 +3425,24 @@
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H115" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3485,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="H116" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
@@ -3496,45 +3465,45 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
         <v>34</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" t="s">
-        <v>27</v>
-      </c>
-      <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>26</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
@@ -3548,10 +3517,10 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E119" t="s">
         <v>25</v>
@@ -3560,10 +3529,10 @@
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120">
@@ -3571,25 +3540,25 @@
         <v>8</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H120" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121">
@@ -3600,45 +3569,43 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" t="s">
-        <v>16</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D121"/>
       <c r="E121" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G121" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D122" t="s">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
@@ -3652,22 +3619,22 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
         <v>32</v>
       </c>
-      <c r="D123" t="s">
-        <v>29</v>
-      </c>
-      <c r="E123" t="s">
-        <v>20</v>
-      </c>
-      <c r="F123" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" t="s">
-        <v>26</v>
-      </c>
       <c r="H123" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -3678,22 +3645,22 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125">
@@ -3704,22 +3671,22 @@
         <v>1</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H125" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126">
@@ -3730,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
@@ -3742,10 +3709,10 @@
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H126" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -3759,7 +3726,7 @@
         <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E127" t="s">
         <v>25</v>
@@ -3768,24 +3735,24 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H127" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E128" t="s">
         <v>25</v>
@@ -3794,24 +3761,24 @@
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E129" t="s">
         <v>25</v>
@@ -3820,10 +3787,10 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H129" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130">
@@ -3837,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -3846,24 +3813,24 @@
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
         <v>25</v>
@@ -3872,24 +3839,24 @@
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H131" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
         <v>25</v>
@@ -3898,36 +3865,36 @@
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
+        <v>23</v>
+      </c>
+      <c r="F133" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" t="s">
         <v>22</v>
       </c>
-      <c r="F133" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" t="s">
-        <v>26</v>
-      </c>
       <c r="H133" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -3938,22 +3905,22 @@
         <v>1</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
@@ -3961,65 +3928,65 @@
         <v>8</v>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F135" t="s">
         <v>12</v>
       </c>
       <c r="G135" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>8</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" t="s">
         <v>21</v>
       </c>
-      <c r="B136" t="n">
-        <v>1</v>
-      </c>
-      <c r="C136" t="s">
-        <v>18</v>
-      </c>
-      <c r="D136" t="s">
-        <v>16</v>
-      </c>
-      <c r="E136" t="s">
-        <v>20</v>
-      </c>
       <c r="F136" t="s">
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
@@ -4028,24 +3995,24 @@
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E138" t="s">
         <v>25</v>
@@ -4054,10 +4021,10 @@
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H138" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -4068,22 +4035,22 @@
         <v>0</v>
       </c>
       <c r="C139" t="s">
+        <v>33</v>
+      </c>
+      <c r="D139" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
         <v>34</v>
       </c>
-      <c r="D139" t="s">
-        <v>19</v>
-      </c>
-      <c r="E139" t="s">
-        <v>36</v>
-      </c>
-      <c r="F139" t="s">
-        <v>12</v>
-      </c>
-      <c r="G139" t="s">
-        <v>26</v>
-      </c>
       <c r="H139" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140">
@@ -4094,22 +4061,22 @@
         <v>0</v>
       </c>
       <c r="C140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" t="s">
+        <v>23</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
         <v>34</v>
       </c>
-      <c r="D140" t="s">
-        <v>16</v>
-      </c>
-      <c r="E140" t="s">
-        <v>22</v>
-      </c>
-      <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -4120,22 +4087,22 @@
         <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F141" t="s">
         <v>12</v>
       </c>
       <c r="G141" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="142">
@@ -4146,22 +4113,20 @@
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>34</v>
-      </c>
-      <c r="D142" t="s">
-        <v>29</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D142"/>
       <c r="E142" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="143">
@@ -4172,27 +4137,27 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F143" t="s">
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
@@ -4201,24 +4166,24 @@
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E144" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F144" t="s">
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -4226,17 +4191,15 @@
       <c r="C145" t="s">
         <v>9</v>
       </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
+      <c r="D145"/>
       <c r="E145" t="s">
         <v>25</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G145" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -4244,16 +4207,16 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D146" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E146" t="s">
         <v>25</v>
@@ -4262,10 +4225,10 @@
         <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H146" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147">
@@ -4273,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="s">
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E147" t="s">
         <v>25</v>
@@ -4288,88 +4251,88 @@
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="s">
+        <v>29</v>
+      </c>
+      <c r="D148" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
         <v>30</v>
-      </c>
-      <c r="D148" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" t="s">
-        <v>12</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
-      <c r="H148" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D149" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F149" t="s">
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H149" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>28</v>
+      </c>
+      <c r="E150" t="s">
         <v>21</v>
       </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>29</v>
-      </c>
-      <c r="E150" t="s">
-        <v>20</v>
-      </c>
       <c r="F150" t="s">
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H150" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151">
@@ -4377,77 +4340,75 @@
         <v>8</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E151" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F151" t="s">
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B152" t="n">
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
-      </c>
-      <c r="D152" t="s">
-        <v>29</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D152"/>
       <c r="E152" t="s">
+        <v>26</v>
+      </c>
+      <c r="F152" t="s">
         <v>27</v>
       </c>
-      <c r="F152" t="s">
-        <v>31</v>
-      </c>
       <c r="G152" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H152" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D153" t="s">
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
@@ -4455,10 +4416,10 @@
         <v>8</v>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D154" t="s">
         <v>10</v>
@@ -4470,33 +4431,33 @@
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H154" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F155" t="s">
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -4510,45 +4471,45 @@
         <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D156" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E156" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F156" t="s">
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H156" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -4556,25 +4517,25 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="s">
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F158" t="s">
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
@@ -4585,13 +4546,13 @@
         <v>8</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E159" t="s">
         <v>25</v>
@@ -4600,33 +4561,33 @@
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
+        <v>33</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
         <v>34</v>
-      </c>
-      <c r="D160" t="s">
-        <v>16</v>
-      </c>
-      <c r="E160" t="s">
-        <v>38</v>
-      </c>
-      <c r="F160" t="s">
-        <v>12</v>
-      </c>
-      <c r="G160" t="s">
-        <v>17</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
@@ -4634,80 +4595,80 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B161" t="n">
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H161" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B162" t="n">
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="s">
+        <v>29</v>
+      </c>
+      <c r="D163" t="s">
+        <v>28</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
         <v>30</v>
-      </c>
-      <c r="D163" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163" t="s">
-        <v>12</v>
-      </c>
-      <c r="G163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="164">
@@ -4718,36 +4679,34 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
-      </c>
-      <c r="D164" t="s">
-        <v>10</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D164"/>
       <c r="E164" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H164" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E165" t="s">
         <v>25</v>
@@ -4756,36 +4715,36 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>8</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" t="s">
+        <v>28</v>
+      </c>
+      <c r="E166" t="s">
         <v>21</v>
       </c>
-      <c r="B166" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="s">
-        <v>18</v>
-      </c>
-      <c r="D166" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" t="s">
-        <v>20</v>
-      </c>
       <c r="F166" t="s">
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="167">
@@ -4796,53 +4755,53 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F167" t="s">
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H167" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E168" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F168" t="s">
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -4854,68 +4813,66 @@
         <v>10</v>
       </c>
       <c r="E169" t="s">
+        <v>23</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" t="s">
         <v>22</v>
       </c>
-      <c r="F169" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" t="s">
-        <v>17</v>
-      </c>
       <c r="H169" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>18</v>
-      </c>
-      <c r="D170" t="s">
-        <v>10</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D170"/>
       <c r="E170" t="s">
+        <v>23</v>
+      </c>
+      <c r="F170" t="s">
+        <v>27</v>
+      </c>
+      <c r="G170" t="s">
         <v>22</v>
       </c>
-      <c r="F170" t="s">
-        <v>42</v>
-      </c>
-      <c r="G170" t="s">
-        <v>17</v>
-      </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="s">
+        <v>33</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" t="s">
         <v>21</v>
       </c>
-      <c r="B171" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
         <v>34</v>
       </c>
-      <c r="D171" t="s">
-        <v>16</v>
-      </c>
-      <c r="E171" t="s">
-        <v>20</v>
-      </c>
-      <c r="F171" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" t="s">
-        <v>13</v>
-      </c>
       <c r="H171" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172">
@@ -4926,48 +4883,48 @@
         <v>0</v>
       </c>
       <c r="C172" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" t="s">
+        <v>20</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" t="s">
         <v>32</v>
       </c>
-      <c r="D173" t="s">
-        <v>19</v>
-      </c>
-      <c r="E173" t="s">
-        <v>22</v>
-      </c>
-      <c r="F173" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" t="s">
-        <v>13</v>
-      </c>
       <c r="H173" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="174">
@@ -4975,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -4990,21 +4947,21 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H174" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B175" t="n">
         <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D175" t="s">
         <v>10</v>
@@ -5016,7 +4973,7 @@
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -5024,22 +4981,20 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>34</v>
-      </c>
-      <c r="D176" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D176"/>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G176" t="s">
         <v>13</v>
@@ -5050,68 +5005,68 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B177" t="n">
         <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H177" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B178" t="n">
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E178" t="s">
+        <v>23</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
         <v>22</v>
       </c>
-      <c r="F178" t="s">
-        <v>12</v>
-      </c>
-      <c r="G178" t="s">
-        <v>17</v>
-      </c>
       <c r="H178" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E179" t="s">
         <v>25</v>
@@ -5120,33 +5075,33 @@
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H179" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D180" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
+        <v>23</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" t="s">
         <v>22</v>
-      </c>
-      <c r="F180" t="s">
-        <v>12</v>
-      </c>
-      <c r="G180" t="s">
-        <v>17</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -5160,27 +5115,27 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H181" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
@@ -5189,33 +5144,33 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E182" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F182" t="s">
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -5227,7 +5182,7 @@
         <v>13</v>
       </c>
       <c r="H183" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184">
@@ -5238,10 +5193,10 @@
         <v>0</v>
       </c>
       <c r="C184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E184" t="s">
         <v>25</v>
@@ -5250,24 +5205,24 @@
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H184" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B185" t="n">
         <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E185" t="s">
         <v>25</v>
@@ -5276,10 +5231,10 @@
         <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H185" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -5302,15 +5257,15 @@
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H186" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -5319,24 +5274,24 @@
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E187" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F187" t="s">
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="H187" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -5345,7 +5300,7 @@
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E188" t="s">
         <v>25</v>
@@ -5354,24 +5309,24 @@
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H188" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B189" t="n">
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D189" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E189" t="s">
         <v>25</v>
@@ -5380,24 +5335,24 @@
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B190" t="n">
         <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E190" t="s">
         <v>25</v>
@@ -5406,50 +5361,50 @@
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E191" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="H191" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D192" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E192" t="s">
         <v>25</v>
@@ -5458,88 +5413,84 @@
         <v>12</v>
       </c>
       <c r="G192" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H192" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
         <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F193" t="s">
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H193" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194"/>
+      <c r="E194" t="s">
         <v>21</v>
       </c>
-      <c r="B194" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" t="s">
-        <v>34</v>
-      </c>
-      <c r="D194" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" t="s">
-        <v>20</v>
-      </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G194" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>24</v>
       </c>
-      <c r="D195" t="s">
-        <v>19</v>
-      </c>
+      <c r="D195"/>
       <c r="E195" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="G195" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H195" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196">
@@ -5547,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C196" t="s">
         <v>9</v>
@@ -5562,10 +5513,10 @@
         <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H196" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197">
@@ -5576,22 +5527,22 @@
         <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D197" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E197" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F197" t="s">
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H197" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198">
@@ -5605,10 +5556,10 @@
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E198" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F198" t="s">
         <v>12</v>
@@ -5622,80 +5573,80 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D199" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F199" t="s">
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H199" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D200" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E200" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H200" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E201" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H201" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/anonymized/anonymized_data.xlsx
+++ b/data/anonymized/anonymized_data.xlsx
@@ -53,13 +53,10 @@
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Married/separated</t>
+    <t xml:space="preserve">Divorced</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Male</t>
+    <t xml:space="preserve">Green</t>
   </si>
   <si>
     <t xml:space="preserve">1990s</t>
@@ -68,7 +65,10 @@
     <t xml:space="preserve">2400</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t xml:space="preserve">Married/separated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red</t>
   </si>
   <si>
     <t xml:space="preserve">1980s</t>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">Vocational bachelors educations</t>
   </si>
   <si>
-    <t xml:space="preserve">Never married</t>
-  </si>
-  <si>
     <t xml:space="preserve">Primary education</t>
   </si>
   <si>
@@ -92,10 +89,16 @@
     <t xml:space="preserve">Vocational Education and Training (VET)</t>
   </si>
   <si>
+    <t xml:space="preserve">Never married</t>
+  </si>
+  <si>
     <t xml:space="preserve">Masters programmes</t>
   </si>
   <si>
     <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Male</t>
   </si>
   <si>
     <t xml:space="preserve">2300</t>
@@ -104,19 +107,13 @@
     <t xml:space="preserve">1950s</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid vote</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;=1940s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Widowed</t>
   </si>
   <si>
     <t xml:space="preserve">1960s</t>
   </si>
   <si>
-    <t xml:space="preserve">Divorced</t>
+    <t xml:space="preserve">Widowed</t>
   </si>
   <si>
     <t xml:space="preserve">Short cycle higher education</t>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bachelors programmes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid vote</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -511,16 +511,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -529,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -555,7 +555,7 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -598,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -610,30 +610,30 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -657,50 +657,50 @@
         <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -709,68 +709,68 @@
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -779,21 +779,21 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -802,19 +802,19 @@
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -822,91 +822,91 @@
         <v>8</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>21</v>
@@ -915,10 +915,10 @@
         <v>12</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -941,33 +941,33 @@
         <v>12</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>15</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -993,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1004,13 +1004,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
         <v>21</v>
@@ -1019,7 +1019,7 @@
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H22" t="s">
         <v>18</v>
@@ -1027,16 +1027,16 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
         <v>21</v>
@@ -1045,10 +1045,10 @@
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1059,45 +1059,45 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
@@ -1123,33 +1123,33 @@
         <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
         <v>18</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -1166,19 +1166,19 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H28" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1186,13 +1186,13 @@
         <v>8</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -1201,7 +1201,7 @@
         <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -1212,39 +1212,39 @@
         <v>8</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
         <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -1253,31 +1253,31 @@
         <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
         <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H32" t="s">
         <v>18</v>
@@ -1285,28 +1285,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -1314,7 +1314,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -1323,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
         <v>18</v>
@@ -1347,13 +1347,13 @@
       </c>
       <c r="D35"/>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
         <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
         <v>18</v>
@@ -1361,25 +1361,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
@@ -1393,36 +1393,36 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -1431,18 +1431,18 @@
         <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>19</v>
@@ -1457,7 +1457,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -1468,16 +1468,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
         <v>20</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
         <v>12</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
@@ -1509,33 +1509,33 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B42" t="n">
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
@@ -1561,36 +1561,36 @@
         <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1598,48 +1598,48 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
         <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
@@ -1647,16 +1647,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -1665,50 +1665,50 @@
         <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
         <v>15</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="s">
-        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
@@ -1717,41 +1717,41 @@
         <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
         <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -1763,30 +1763,30 @@
         <v>20</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
         <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
@@ -1795,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
         <v>20</v>
@@ -1821,7 +1821,7 @@
         <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -1829,16 +1829,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>26</v>
@@ -1847,24 +1847,24 @@
         <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>26</v>
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H55" t="s">
         <v>18</v>
@@ -1881,13 +1881,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" t="s">
         <v>20</v>
@@ -1899,10 +1899,10 @@
         <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
@@ -1925,10 +1925,10 @@
         <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
@@ -1939,10 +1939,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>26</v>
@@ -1951,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
@@ -1962,22 +1962,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
         <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -1985,80 +1985,80 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
         <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
         <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
         <v>15</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>16</v>
-      </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
         <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -2066,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -2081,21 +2081,21 @@
         <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" t="s">
         <v>20</v>
@@ -2110,33 +2110,33 @@
         <v>13</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -2147,33 +2147,33 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
         <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H66" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
         <v>20</v>
@@ -2185,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2193,33 +2193,33 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>15</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
         <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -2228,16 +2228,16 @@
         <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
         <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69" t="s">
         <v>18</v>
@@ -2257,21 +2257,21 @@
         <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F70" t="s">
         <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H70" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -2280,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s">
         <v>21</v>
@@ -2289,21 +2289,21 @@
         <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -2315,77 +2315,77 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H72" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" t="s">
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74"/>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F74" t="s">
         <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F75" t="s">
         <v>12</v>
@@ -2394,56 +2394,56 @@
         <v>13</v>
       </c>
       <c r="H75" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
       </c>
       <c r="E76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F76" t="s">
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H76" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B77" t="n">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F77" t="s">
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
         <v>18</v>
@@ -2451,13 +2451,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>20</v>
@@ -2469,21 +2469,21 @@
         <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H78" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B79" t="n">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
@@ -2495,7 +2495,7 @@
         <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H79" t="s">
         <v>18</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>19</v>
       </c>
       <c r="D80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
         <v>26</v>
@@ -2521,21 +2521,21 @@
         <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
         <v>15</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>16</v>
       </c>
       <c r="D81"/>
       <c r="E81" t="s">
@@ -2545,33 +2545,33 @@
         <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D82" t="s">
         <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
         <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H82" t="s">
         <v>18</v>
@@ -2579,25 +2579,25 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
         <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
@@ -2605,28 +2605,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>20</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -2640,7 +2640,7 @@
         <v>19</v>
       </c>
       <c r="D85" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
         <v>21</v>
@@ -2649,7 +2649,7 @@
         <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H85" t="s">
         <v>18</v>
@@ -2657,28 +2657,28 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D86" t="s">
         <v>20</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
         <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
@@ -2692,7 +2692,7 @@
         <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -2701,7 +2701,7 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
@@ -2709,25 +2709,25 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D88" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
         <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
@@ -2735,66 +2735,66 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B89" t="n">
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D89" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
         <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
         <v>15</v>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="s">
-        <v>16</v>
       </c>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
         <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -2803,10 +2803,10 @@
         <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -2817,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
         <v>20</v>
@@ -2829,7 +2829,7 @@
         <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
@@ -2843,33 +2843,33 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
         <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H93" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
         <v>15</v>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="s">
-        <v>16</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
@@ -2881,24 +2881,24 @@
         <v>12</v>
       </c>
       <c r="G94" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B95" t="n">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -2907,21 +2907,21 @@
         <v>12</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H95" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
         <v>15</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>16</v>
       </c>
       <c r="D96" t="s">
         <v>10</v>
@@ -2933,41 +2933,41 @@
         <v>12</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H96" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
         <v>12</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B98" t="n">
         <v>1</v>
@@ -2976,7 +2976,7 @@
         <v>19</v>
       </c>
       <c r="D98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E98" t="s">
         <v>26</v>
@@ -2985,10 +2985,10 @@
         <v>12</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -3002,19 +3002,19 @@
         <v>19</v>
       </c>
       <c r="D99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100">
@@ -3025,20 +3025,20 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D100"/>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F100" t="s">
         <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101">
@@ -3049,19 +3049,19 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D101" t="s">
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
         <v>12</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B102" t="n">
         <v>1</v>
@@ -3087,33 +3087,33 @@
         <v>12</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H102" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
         <v>12</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>31</v>
       </c>
       <c r="D104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
         <v>21</v>
@@ -3139,10 +3139,10 @@
         <v>12</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105">
@@ -3150,22 +3150,22 @@
         <v>8</v>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
         <v>12</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
@@ -3173,25 +3173,25 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B106" t="n">
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
         <v>12</v>
       </c>
       <c r="G106" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H106" t="s">
         <v>18</v>
@@ -3202,25 +3202,25 @@
         <v>8</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
         <v>33</v>
       </c>
-      <c r="D107" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" t="s">
-        <v>25</v>
-      </c>
-      <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108">
@@ -3231,36 +3231,36 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D108" t="s">
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F108" t="s">
         <v>12</v>
       </c>
       <c r="G108" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -3269,111 +3269,111 @@
         <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
         <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
         <v>12</v>
       </c>
       <c r="G111" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H111" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
         <v>15</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="s">
-        <v>16</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
         <v>12</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D113" t="s">
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
         <v>12</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
@@ -3381,10 +3381,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -3393,21 +3393,21 @@
         <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
         <v>12</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -3416,16 +3416,16 @@
         <v>19</v>
       </c>
       <c r="D115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F115" t="s">
         <v>12</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
@@ -3436,13 +3436,13 @@
         <v>8</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -3451,10 +3451,10 @@
         <v>12</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H116" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -3468,30 +3468,30 @@
         <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
         <v>12</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H117" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D118" t="s">
         <v>20</v>
@@ -3503,36 +3503,36 @@
         <v>12</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F119" t="s">
         <v>12</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H119" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120">
@@ -3540,13 +3540,13 @@
         <v>8</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D120" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
         <v>21</v>
@@ -3555,10 +3555,10 @@
         <v>12</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121">
@@ -3566,7 +3566,7 @@
         <v>8</v>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
@@ -3579,7 +3579,7 @@
         <v>27</v>
       </c>
       <c r="G121" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H121" t="s">
         <v>18</v>
@@ -3587,10 +3587,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="s">
         <v>19</v>
@@ -3599,16 +3599,16 @@
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="123">
@@ -3622,7 +3622,7 @@
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E123" t="s">
         <v>21</v>
@@ -3631,10 +3631,10 @@
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H123" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124">
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D124" t="s">
         <v>10</v>
@@ -3657,36 +3657,36 @@
         <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
         <v>19</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126">
@@ -3697,22 +3697,22 @@
         <v>0</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D126" t="s">
         <v>20</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127">
@@ -3723,30 +3723,30 @@
         <v>1</v>
       </c>
       <c r="C127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F127" t="s">
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H127" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="s">
         <v>31</v>
@@ -3755,21 +3755,21 @@
         <v>20</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H128" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B129" t="n">
         <v>1</v>
@@ -3778,24 +3778,24 @@
         <v>19</v>
       </c>
       <c r="D129" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F129" t="s">
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -3813,15 +3813,15 @@
         <v>12</v>
       </c>
       <c r="G130" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H130" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -3830,24 +3830,24 @@
         <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B132" t="n">
         <v>1</v>
@@ -3856,71 +3856,71 @@
         <v>19</v>
       </c>
       <c r="D132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F132" t="s">
         <v>12</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B133" t="n">
         <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F133" t="s">
         <v>12</v>
       </c>
       <c r="G133" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D134" t="s">
         <v>20</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F134" t="s">
         <v>12</v>
       </c>
       <c r="G134" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H134" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135">
@@ -3928,10 +3928,10 @@
         <v>8</v>
       </c>
       <c r="B135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -3946,7 +3946,7 @@
         <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136">
@@ -3960,7 +3960,7 @@
         <v>19</v>
       </c>
       <c r="D136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
         <v>21</v>
@@ -3969,18 +3969,18 @@
         <v>12</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
         <v>19</v>
@@ -3989,21 +3989,21 @@
         <v>20</v>
       </c>
       <c r="E137" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F137" t="s">
         <v>12</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H137" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B138" t="n">
         <v>1</v>
@@ -4015,13 +4015,13 @@
         <v>20</v>
       </c>
       <c r="E138" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F138" t="s">
         <v>12</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H138" t="s">
         <v>18</v>
@@ -4029,51 +4029,51 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D139" t="s">
         <v>20</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
         <v>12</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E140" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F140" t="s">
         <v>12</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H140" t="s">
         <v>18</v>
@@ -4084,13 +4084,13 @@
         <v>8</v>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E141" t="s">
         <v>26</v>
@@ -4102,31 +4102,31 @@
         <v>13</v>
       </c>
       <c r="H141" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B142" t="n">
         <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D142"/>
       <c r="E142" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F142" t="s">
         <v>27</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H142" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143">
@@ -4149,24 +4149,24 @@
         <v>12</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D144" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E144" t="s">
         <v>21</v>
@@ -4175,31 +4175,31 @@
         <v>12</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H144" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
       <c r="D145"/>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F145" t="s">
         <v>27</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
@@ -4207,25 +4207,25 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
         <v>12</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
@@ -4236,42 +4236,42 @@
         <v>8</v>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F147" t="s">
         <v>12</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B148" t="n">
         <v>1</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
         <v>20</v>
       </c>
       <c r="E148" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F148" t="s">
         <v>12</v>
@@ -4280,18 +4280,18 @@
         <v>13</v>
       </c>
       <c r="H148" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>8</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
         <v>15</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" t="s">
-        <v>16</v>
       </c>
       <c r="D149" t="s">
         <v>20</v>
@@ -4303,24 +4303,24 @@
         <v>12</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H149" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
         <v>15</v>
       </c>
-      <c r="B150" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" t="s">
-        <v>16</v>
-      </c>
       <c r="D150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E150" t="s">
         <v>21</v>
@@ -4329,10 +4329,10 @@
         <v>12</v>
       </c>
       <c r="G150" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H150" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151">
@@ -4340,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="s">
         <v>19</v>
@@ -4355,18 +4355,18 @@
         <v>12</v>
       </c>
       <c r="G151" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H151" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>31</v>
@@ -4379,15 +4379,15 @@
         <v>27</v>
       </c>
       <c r="G152" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H152" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B153" t="n">
         <v>1</v>
@@ -4399,16 +4399,16 @@
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F153" t="s">
         <v>12</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="154">
@@ -4416,7 +4416,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
         <v>31</v>
@@ -4425,30 +4425,30 @@
         <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F154" t="s">
         <v>12</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H154" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="s">
         <v>31</v>
       </c>
       <c r="D155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
         <v>26</v>
@@ -4457,7 +4457,7 @@
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B156" t="n">
         <v>1</v>
@@ -4474,7 +4474,7 @@
         <v>31</v>
       </c>
       <c r="D156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E156" t="s">
         <v>21</v>
@@ -4483,33 +4483,33 @@
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H156" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
         <v>12</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
@@ -4523,10 +4523,10 @@
         <v>1</v>
       </c>
       <c r="C158" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E158" t="s">
         <v>21</v>
@@ -4535,10 +4535,10 @@
         <v>12</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159">
@@ -4546,22 +4546,22 @@
         <v>8</v>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D159" t="s">
         <v>20</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F159" t="s">
         <v>12</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H159" t="s">
         <v>18</v>
@@ -4569,28 +4569,28 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
         <v>12</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161">
@@ -4604,71 +4604,71 @@
         <v>31</v>
       </c>
       <c r="D161" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F161" t="s">
         <v>12</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H161" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="s">
         <v>31</v>
       </c>
       <c r="D162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F162" t="s">
         <v>12</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H162" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="s">
+        <v>30</v>
+      </c>
+      <c r="D163" t="s">
         <v>29</v>
       </c>
-      <c r="D163" t="s">
-        <v>28</v>
-      </c>
       <c r="E163" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F163" t="s">
         <v>12</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H163" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164">
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D164"/>
       <c r="E164" t="s">
@@ -4689,36 +4689,36 @@
         <v>27</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E165" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F165" t="s">
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H165" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166">
@@ -4726,13 +4726,13 @@
         <v>8</v>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
         <v>19</v>
       </c>
       <c r="D166" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E166" t="s">
         <v>21</v>
@@ -4741,10 +4741,10 @@
         <v>12</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H166" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D167" t="s">
         <v>20</v>
@@ -4767,21 +4767,21 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H167" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B168" t="n">
         <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D168" t="s">
         <v>20</v>
@@ -4793,15 +4793,15 @@
         <v>12</v>
       </c>
       <c r="G168" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H168" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -4813,37 +4813,37 @@
         <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F169" t="s">
         <v>12</v>
       </c>
       <c r="G169" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
       <c r="D170"/>
       <c r="E170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F170" t="s">
         <v>27</v>
       </c>
       <c r="G170" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H170" t="s">
         <v>18</v>
@@ -4854,13 +4854,13 @@
         <v>8</v>
       </c>
       <c r="B171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E171" t="s">
         <v>21</v>
@@ -4869,7 +4869,7 @@
         <v>12</v>
       </c>
       <c r="G171" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
@@ -4880,7 +4880,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="s">
         <v>19</v>
@@ -4889,13 +4889,13 @@
         <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F172" t="s">
         <v>12</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H172" t="s">
         <v>18</v>
@@ -4903,10 +4903,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C173" t="s">
         <v>31</v>
@@ -4915,16 +4915,16 @@
         <v>20</v>
       </c>
       <c r="E173" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
         <v>12</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H173" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="174">
@@ -4932,13 +4932,13 @@
         <v>8</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
         <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -4947,18 +4947,18 @@
         <v>12</v>
       </c>
       <c r="G174" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H174" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="s">
         <v>19</v>
@@ -4967,13 +4967,13 @@
         <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F175" t="s">
         <v>12</v>
       </c>
       <c r="G175" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
@@ -4981,49 +4981,49 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D176"/>
       <c r="E176" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F176" t="s">
         <v>27</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E177" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F177" t="s">
         <v>12</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H177" t="s">
         <v>18</v>
@@ -5037,19 +5037,19 @@
         <v>1</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E178" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F178" t="s">
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
@@ -5057,25 +5057,25 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F179" t="s">
         <v>12</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H179" t="s">
         <v>18</v>
@@ -5083,25 +5083,25 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E180" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F180" t="s">
         <v>12</v>
       </c>
       <c r="G180" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
@@ -5112,22 +5112,22 @@
         <v>8</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D181" t="s">
         <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F181" t="s">
         <v>12</v>
       </c>
       <c r="G181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
@@ -5135,16 +5135,16 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B182" t="n">
         <v>1</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E182" t="s">
         <v>21</v>
@@ -5153,24 +5153,24 @@
         <v>12</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H182" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
         <v>15</v>
       </c>
-      <c r="B183" t="n">
-        <v>1</v>
-      </c>
-      <c r="C183" t="s">
-        <v>16</v>
-      </c>
       <c r="D183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -5179,33 +5179,33 @@
         <v>12</v>
       </c>
       <c r="G183" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H183" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F184" t="s">
         <v>12</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H184" t="s">
         <v>18</v>
@@ -5213,28 +5213,28 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D185" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F185" t="s">
         <v>12</v>
       </c>
       <c r="G185" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H185" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="186">
@@ -5242,7 +5242,7 @@
         <v>8</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C186" t="s">
         <v>9</v>
@@ -5257,24 +5257,24 @@
         <v>12</v>
       </c>
       <c r="G186" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H186" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B187" t="n">
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E187" t="s">
         <v>21</v>
@@ -5283,33 +5283,33 @@
         <v>12</v>
       </c>
       <c r="G187" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H187" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F188" t="s">
         <v>12</v>
       </c>
       <c r="G188" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H188" t="s">
         <v>18</v>
@@ -5323,105 +5323,105 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
       </c>
       <c r="E189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F189" t="s">
         <v>12</v>
       </c>
       <c r="G189" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H189" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F190" t="s">
         <v>12</v>
       </c>
       <c r="G190" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F191" t="s">
         <v>12</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H191" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" t="s">
+        <v>16</v>
+      </c>
+      <c r="E192" t="s">
+        <v>24</v>
+      </c>
+      <c r="F192" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
         <v>33</v>
       </c>
-      <c r="D192" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" t="s">
-        <v>25</v>
-      </c>
-      <c r="F192" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" t="s">
-        <v>13</v>
-      </c>
       <c r="H192" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>12</v>
       </c>
       <c r="G193" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H193" t="s">
         <v>18</v>
@@ -5447,13 +5447,13 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B194" t="n">
         <v>1</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D194"/>
       <c r="E194" t="s">
@@ -5463,21 +5463,21 @@
         <v>27</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D195"/>
       <c r="E195" t="s">
@@ -5487,15 +5487,15 @@
         <v>27</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H196" t="s">
         <v>18</v>
@@ -5524,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="s">
         <v>19</v>
@@ -5539,10 +5539,10 @@
         <v>12</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H197" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198">
@@ -5553,27 +5553,27 @@
         <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E198" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F198" t="s">
         <v>12</v>
       </c>
       <c r="G198" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H198" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B199" t="n">
         <v>1</v>
@@ -5591,59 +5591,59 @@
         <v>12</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H199" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D200" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E200" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F200" t="s">
         <v>12</v>
       </c>
       <c r="G200" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H200" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B201" t="n">
         <v>0</v>
       </c>
       <c r="C201" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D201" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E201" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F201" t="s">
         <v>12</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H201" t="s">
         <v>18</v>

--- a/data/anonymized/anonymized_data.xlsx
+++ b/data/anonymized/anonymized_data.xlsx
@@ -1,139 +1,146 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b31428c643243b54/Dokumenter/ITU/fifth_semester/SecurityAndPrivacy/SecPriv-final-project/data/anonymized/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EE72312E1DE1689DCE06394E5F7A0E65625CDAA2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34E525A1-5542-4153-BF27-87F8C9A718DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11836" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="38">
   <si>
-    <t xml:space="preserve">m_sex</t>
+    <t>m_sex</t>
   </si>
   <si>
-    <t xml:space="preserve">m_evote</t>
+    <t>m_evote</t>
   </si>
   <si>
-    <t xml:space="preserve">m_dob</t>
+    <t>m_dob</t>
   </si>
   <si>
-    <t xml:space="preserve">m_zip</t>
+    <t>m_zip</t>
   </si>
   <si>
-    <t xml:space="preserve">education</t>
+    <t>education</t>
   </si>
   <si>
-    <t xml:space="preserve">m_citizenship_region</t>
+    <t>m_citizenship_region</t>
   </si>
   <si>
-    <t xml:space="preserve">m_marital_status</t>
+    <t>m_marital_status</t>
   </si>
   <si>
-    <t xml:space="preserve">m_party</t>
+    <t>m_party</t>
   </si>
   <si>
-    <t xml:space="preserve">Female</t>
+    <t>Female</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;=2000s</t>
+    <t>&gt;=2000s</t>
   </si>
   <si>
-    <t xml:space="preserve">2100</t>
+    <t>2100</t>
   </si>
   <si>
-    <t xml:space="preserve">Upper secondary education</t>
+    <t>Upper secondary education</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark</t>
+    <t>Denmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Divorced</t>
+    <t>Divorced</t>
   </si>
   <si>
-    <t xml:space="preserve">Green</t>
+    <t>Green</t>
   </si>
   <si>
-    <t xml:space="preserve">1990s</t>
+    <t>1990s</t>
   </si>
   <si>
-    <t xml:space="preserve">2400</t>
+    <t>2400</t>
   </si>
   <si>
-    <t xml:space="preserve">Married/separated</t>
+    <t>Married/separated</t>
   </si>
   <si>
-    <t xml:space="preserve">Red</t>
+    <t>Red</t>
   </si>
   <si>
-    <t xml:space="preserve">1980s</t>
+    <t>1980s</t>
   </si>
   <si>
-    <t xml:space="preserve">2200</t>
+    <t>2200</t>
   </si>
   <si>
-    <t xml:space="preserve">Vocational bachelors educations</t>
+    <t>Vocational bachelors educations</t>
   </si>
   <si>
-    <t xml:space="preserve">Primary education</t>
+    <t>Primary education</t>
   </si>
   <si>
-    <t xml:space="preserve">1970s</t>
+    <t>1970s</t>
   </si>
   <si>
-    <t xml:space="preserve">Vocational Education and Training (VET)</t>
+    <t>Vocational Education and Training (VET)</t>
   </si>
   <si>
-    <t xml:space="preserve">Never married</t>
+    <t>Never married</t>
   </si>
   <si>
-    <t xml:space="preserve">Masters programmes</t>
+    <t>Masters programmes</t>
   </si>
   <si>
-    <t xml:space="preserve">Other</t>
+    <t>Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Male</t>
+    <t>Male</t>
   </si>
   <si>
-    <t xml:space="preserve">2300</t>
+    <t>2300</t>
   </si>
   <si>
-    <t xml:space="preserve">1950s</t>
+    <t>1950s</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;=1940s</t>
+    <t>&lt;=1940s</t>
   </si>
   <si>
-    <t xml:space="preserve">1960s</t>
+    <t>1960s</t>
   </si>
   <si>
-    <t xml:space="preserve">Widowed</t>
+    <t>Widowed</t>
   </si>
   <si>
-    <t xml:space="preserve">Short cycle higher education</t>
+    <t>Short cycle higher education</t>
   </si>
   <si>
-    <t xml:space="preserve">Not stated</t>
+    <t>Not stated</t>
   </si>
   <si>
-    <t xml:space="preserve">Bachelors programmes</t>
+    <t>Bachelors programmes</t>
   </si>
   <si>
-    <t xml:space="preserve">Invalid vote</t>
+    <t>Invalid vote</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +176,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -450,14 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection sqref="A1:H201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,11 +501,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -509,11 +527,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -535,11 +553,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
@@ -561,11 +579,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>0</v>
       </c>
       <c r="C5" t="s">
@@ -587,11 +605,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
@@ -613,11 +631,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -639,17 +657,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8"/>
       <c r="E8" t="s">
         <v>26</v>
       </c>
@@ -663,11 +680,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
@@ -689,11 +706,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -715,11 +732,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -741,17 +758,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12"/>
       <c r="E12" t="s">
         <v>22</v>
       </c>
@@ -765,11 +781,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -791,11 +807,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
@@ -817,11 +833,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -843,11 +859,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -869,11 +885,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0</v>
       </c>
       <c r="C17" t="s">
@@ -895,11 +911,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
@@ -921,11 +937,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -947,11 +963,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -973,11 +989,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
@@ -999,11 +1015,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>0</v>
       </c>
       <c r="C22" t="s">
@@ -1025,11 +1041,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
@@ -1051,11 +1067,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>0</v>
       </c>
       <c r="C24" t="s">
@@ -1077,11 +1093,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>0</v>
       </c>
       <c r="C25" t="s">
@@ -1103,11 +1119,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1129,11 +1145,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
@@ -1155,11 +1171,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -1181,11 +1197,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>8</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -1207,11 +1223,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>8</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
@@ -1233,11 +1249,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
@@ -1259,17 +1275,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
       </c>
-      <c r="D32"/>
       <c r="E32" t="s">
         <v>22</v>
       </c>
@@ -1283,11 +1298,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>0</v>
       </c>
       <c r="C33" t="s">
@@ -1309,11 +1324,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>0</v>
       </c>
       <c r="C34" t="s">
@@ -1335,17 +1350,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>8</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
-      <c r="D35"/>
       <c r="E35" t="s">
         <v>34</v>
       </c>
@@ -1359,11 +1373,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>0</v>
       </c>
       <c r="C36" t="s">
@@ -1385,11 +1399,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
@@ -1411,11 +1425,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
@@ -1437,11 +1451,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>0</v>
       </c>
       <c r="C39" t="s">
@@ -1463,11 +1477,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>0</v>
       </c>
       <c r="C40" t="s">
@@ -1489,11 +1503,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
@@ -1515,11 +1529,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0</v>
       </c>
       <c r="C42" t="s">
@@ -1541,11 +1555,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" t="s">
@@ -1567,11 +1581,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
@@ -1593,11 +1607,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
@@ -1619,11 +1633,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>28</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
@@ -1645,11 +1659,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>28</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
@@ -1671,11 +1685,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>28</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>0</v>
       </c>
       <c r="C48" t="s">
@@ -1697,11 +1711,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>8</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
@@ -1723,11 +1737,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>28</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
@@ -1749,11 +1763,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
@@ -1775,11 +1789,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>8</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>0</v>
       </c>
       <c r="C52" t="s">
@@ -1801,11 +1815,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>8</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>0</v>
       </c>
       <c r="C53" t="s">
@@ -1827,11 +1841,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>8</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>0</v>
       </c>
       <c r="C54" t="s">
@@ -1853,11 +1867,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>28</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" t="s">
@@ -1879,11 +1893,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>28</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" t="s">
@@ -1905,11 +1919,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>0</v>
       </c>
       <c r="C57" t="s">
@@ -1931,11 +1945,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>0</v>
       </c>
       <c r="C58" t="s">
@@ -1957,11 +1971,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>0</v>
       </c>
       <c r="C59" t="s">
@@ -1983,11 +1997,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>28</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" t="s">
@@ -2009,11 +2023,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>8</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" t="s">
@@ -2035,11 +2049,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>28</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" t="s">
@@ -2061,11 +2075,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" t="s">
@@ -2087,11 +2101,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" t="s">
@@ -2113,11 +2127,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>28</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>0</v>
       </c>
       <c r="C65" t="s">
@@ -2139,11 +2153,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>8</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" t="s">
@@ -2165,11 +2179,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>28</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" t="s">
@@ -2191,11 +2205,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>8</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1</v>
       </c>
       <c r="C68" t="s">
@@ -2217,11 +2231,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>8</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" t="s">
@@ -2243,11 +2257,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>8</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>0</v>
       </c>
       <c r="C70" t="s">
@@ -2269,11 +2283,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>28</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>0</v>
       </c>
       <c r="C71" t="s">
@@ -2295,11 +2309,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>28</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>0</v>
       </c>
       <c r="C72" t="s">
@@ -2321,11 +2335,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>0</v>
       </c>
       <c r="C73" t="s">
@@ -2347,17 +2361,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>28</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>32</v>
       </c>
-      <c r="D74"/>
       <c r="E74" t="s">
         <v>24</v>
       </c>
@@ -2371,11 +2384,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>28</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>0</v>
       </c>
       <c r="C75" t="s">
@@ -2397,11 +2410,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>8</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" t="s">
@@ -2423,11 +2436,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>28</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" t="s">
@@ -2449,11 +2462,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>28</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>1</v>
       </c>
       <c r="C78" t="s">
@@ -2475,11 +2488,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>28</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>1</v>
       </c>
       <c r="C79" t="s">
@@ -2501,11 +2514,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>28</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>0</v>
       </c>
       <c r="C80" t="s">
@@ -2527,17 +2540,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>28</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>0</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
       </c>
-      <c r="D81"/>
       <c r="E81" t="s">
         <v>21</v>
       </c>
@@ -2551,11 +2563,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>28</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>0</v>
       </c>
       <c r="C82" t="s">
@@ -2577,11 +2589,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>28</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>0</v>
       </c>
       <c r="C83" t="s">
@@ -2603,11 +2615,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>28</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>0</v>
       </c>
       <c r="C84" t="s">
@@ -2629,11 +2641,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>8</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>0</v>
       </c>
       <c r="C85" t="s">
@@ -2655,11 +2667,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>28</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>0</v>
       </c>
       <c r="C86" t="s">
@@ -2681,11 +2693,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>8</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
@@ -2707,11 +2719,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>28</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1</v>
       </c>
       <c r="C88" t="s">
@@ -2733,11 +2745,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>28</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1</v>
       </c>
       <c r="C89" t="s">
@@ -2759,17 +2771,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>8</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
         <v>15</v>
       </c>
-      <c r="D90"/>
       <c r="E90" t="s">
         <v>36</v>
       </c>
@@ -2783,11 +2794,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>28</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>0</v>
       </c>
       <c r="C91" t="s">
@@ -2809,11 +2820,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>8</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>1</v>
       </c>
       <c r="C92" t="s">
@@ -2835,11 +2846,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>0</v>
       </c>
       <c r="C93" t="s">
@@ -2861,11 +2872,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>28</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>0</v>
       </c>
       <c r="C94" t="s">
@@ -2887,11 +2898,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>28</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>0</v>
       </c>
       <c r="C95" t="s">
@@ -2913,11 +2924,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>28</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1</v>
       </c>
       <c r="C96" t="s">
@@ -2939,11 +2950,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>8</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>0</v>
       </c>
       <c r="C97" t="s">
@@ -2965,11 +2976,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>8</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
@@ -2991,11 +3002,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>8</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
@@ -3017,17 +3028,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>8</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>0</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
       </c>
-      <c r="D100"/>
       <c r="E100" t="s">
         <v>22</v>
       </c>
@@ -3041,11 +3051,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>8</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
@@ -3067,11 +3077,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>28</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>1</v>
       </c>
       <c r="C102" t="s">
@@ -3093,11 +3103,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>8</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>0</v>
       </c>
       <c r="C103" t="s">
@@ -3119,11 +3129,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>28</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>0</v>
       </c>
       <c r="C104" t="s">
@@ -3145,11 +3155,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>8</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>0</v>
       </c>
       <c r="C105" t="s">
@@ -3171,11 +3181,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>28</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>1</v>
       </c>
       <c r="C106" t="s">
@@ -3197,11 +3207,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>8</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>1</v>
       </c>
       <c r="C107" t="s">
@@ -3223,11 +3233,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>8</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>1</v>
       </c>
       <c r="C108" t="s">
@@ -3249,11 +3259,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>28</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>1</v>
       </c>
       <c r="C109" t="s">
@@ -3275,11 +3285,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>28</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>0</v>
       </c>
       <c r="C110" t="s">
@@ -3301,11 +3311,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>28</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>0</v>
       </c>
       <c r="C111" t="s">
@@ -3327,11 +3337,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>8</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>0</v>
       </c>
       <c r="C112" t="s">
@@ -3353,11 +3363,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>8</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>1</v>
       </c>
       <c r="C113" t="s">
@@ -3379,11 +3389,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>28</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>0</v>
       </c>
       <c r="C114" t="s">
@@ -3405,11 +3415,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>28</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>0</v>
       </c>
       <c r="C115" t="s">
@@ -3431,11 +3441,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>8</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>1</v>
       </c>
       <c r="C116" t="s">
@@ -3457,11 +3467,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>8</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>0</v>
       </c>
       <c r="C117" t="s">
@@ -3483,11 +3493,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>28</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>0</v>
       </c>
       <c r="C118" t="s">
@@ -3509,11 +3519,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>28</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>1</v>
       </c>
       <c r="C119" t="s">
@@ -3535,11 +3545,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>8</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>0</v>
       </c>
       <c r="C120" t="s">
@@ -3561,17 +3571,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>0</v>
       </c>
       <c r="C121" t="s">
         <v>19</v>
       </c>
-      <c r="D121"/>
       <c r="E121" t="s">
         <v>21</v>
       </c>
@@ -3585,11 +3594,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>0</v>
       </c>
       <c r="C122" t="s">
@@ -3611,11 +3620,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>8</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>1</v>
       </c>
       <c r="C123" t="s">
@@ -3637,11 +3646,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>8</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>1</v>
       </c>
       <c r="C124" t="s">
@@ -3663,11 +3672,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>28</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>0</v>
       </c>
       <c r="C125" t="s">
@@ -3689,11 +3698,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>8</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>0</v>
       </c>
       <c r="C126" t="s">
@@ -3715,11 +3724,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>8</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>1</v>
       </c>
       <c r="C127" t="s">
@@ -3741,11 +3750,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>28</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>0</v>
       </c>
       <c r="C128" t="s">
@@ -3767,11 +3776,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>28</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>1</v>
       </c>
       <c r="C129" t="s">
@@ -3793,11 +3802,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>28</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>0</v>
       </c>
       <c r="C130" t="s">
@@ -3819,11 +3828,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>28</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>0</v>
       </c>
       <c r="C131" t="s">
@@ -3845,11 +3854,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>28</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1</v>
       </c>
       <c r="C132" t="s">
@@ -3871,11 +3880,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>28</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>0</v>
       </c>
       <c r="C133" t="s">
@@ -3897,11 +3906,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>28</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>0</v>
       </c>
       <c r="C134" t="s">
@@ -3923,11 +3932,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>8</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>0</v>
       </c>
       <c r="C135" t="s">
@@ -3949,11 +3958,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>8</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1</v>
       </c>
       <c r="C136" t="s">
@@ -3975,11 +3984,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>28</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>0</v>
       </c>
       <c r="C137" t="s">
@@ -4001,11 +4010,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>28</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1</v>
       </c>
       <c r="C138" t="s">
@@ -4027,11 +4036,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>28</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1</v>
       </c>
       <c r="C139" t="s">
@@ -4053,11 +4062,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>28</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>0</v>
       </c>
       <c r="C140" t="s">
@@ -4079,11 +4088,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>8</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>0</v>
       </c>
       <c r="C141" t="s">
@@ -4105,17 +4114,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>28</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>0</v>
       </c>
       <c r="C142" t="s">
         <v>32</v>
       </c>
-      <c r="D142"/>
       <c r="E142" t="s">
         <v>22</v>
       </c>
@@ -4129,11 +4137,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>8</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>0</v>
       </c>
       <c r="C143" t="s">
@@ -4155,11 +4163,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>28</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1</v>
       </c>
       <c r="C144" t="s">
@@ -4181,17 +4189,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>28</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1</v>
       </c>
       <c r="C145" t="s">
         <v>9</v>
       </c>
-      <c r="D145"/>
       <c r="E145" t="s">
         <v>24</v>
       </c>
@@ -4205,11 +4212,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>8</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>0</v>
       </c>
       <c r="C146" t="s">
@@ -4231,11 +4238,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>8</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>0</v>
       </c>
       <c r="C147" t="s">
@@ -4257,11 +4264,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>28</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1</v>
       </c>
       <c r="C148" t="s">
@@ -4283,11 +4290,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>8</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>0</v>
       </c>
       <c r="C149" t="s">
@@ -4309,11 +4316,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>28</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>0</v>
       </c>
       <c r="C150" t="s">
@@ -4335,11 +4342,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>8</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>0</v>
       </c>
       <c r="C151" t="s">
@@ -4361,17 +4368,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>28</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>1</v>
       </c>
       <c r="C152" t="s">
         <v>31</v>
       </c>
-      <c r="D152"/>
       <c r="E152" t="s">
         <v>26</v>
       </c>
@@ -4385,11 +4391,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>8</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" t="s">
@@ -4411,11 +4417,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>8</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>0</v>
       </c>
       <c r="C154" t="s">
@@ -4437,11 +4443,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>28</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>1</v>
       </c>
       <c r="C155" t="s">
@@ -4463,11 +4469,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>28</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>1</v>
       </c>
       <c r="C156" t="s">
@@ -4489,11 +4495,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>8</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>0</v>
       </c>
       <c r="C157" t="s">
@@ -4515,11 +4521,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>8</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>1</v>
       </c>
       <c r="C158" t="s">
@@ -4541,11 +4547,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>8</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>0</v>
       </c>
       <c r="C159" t="s">
@@ -4567,11 +4573,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>8</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>0</v>
       </c>
       <c r="C160" t="s">
@@ -4593,11 +4599,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>8</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>0</v>
       </c>
       <c r="C161" t="s">
@@ -4619,11 +4625,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>28</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>1</v>
       </c>
       <c r="C162" t="s">
@@ -4645,11 +4651,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>8</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>0</v>
       </c>
       <c r="C163" t="s">
@@ -4671,17 +4677,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>8</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>0</v>
       </c>
       <c r="C164" t="s">
         <v>15</v>
       </c>
-      <c r="D164"/>
       <c r="E164" t="s">
         <v>21</v>
       </c>
@@ -4695,11 +4700,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>28</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>0</v>
       </c>
       <c r="C165" t="s">
@@ -4721,11 +4726,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>8</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>0</v>
       </c>
       <c r="C166" t="s">
@@ -4747,11 +4752,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>8</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>0</v>
       </c>
       <c r="C167" t="s">
@@ -4773,11 +4778,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>28</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>0</v>
       </c>
       <c r="C168" t="s">
@@ -4799,11 +4804,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>28</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>0</v>
       </c>
       <c r="C169" t="s">
@@ -4825,17 +4830,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>28</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>0</v>
       </c>
       <c r="C170" t="s">
         <v>19</v>
       </c>
-      <c r="D170"/>
       <c r="E170" t="s">
         <v>22</v>
       </c>
@@ -4849,11 +4853,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>8</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>0</v>
       </c>
       <c r="C171" t="s">
@@ -4875,11 +4879,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>8</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>1</v>
       </c>
       <c r="C172" t="s">
@@ -4901,11 +4905,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>28</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>0</v>
       </c>
       <c r="C173" t="s">
@@ -4927,11 +4931,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>8</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
@@ -4953,11 +4957,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>28</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>0</v>
       </c>
       <c r="C175" t="s">
@@ -4979,17 +4983,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>28</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>0</v>
       </c>
       <c r="C176" t="s">
         <v>32</v>
       </c>
-      <c r="D176"/>
       <c r="E176" t="s">
         <v>22</v>
       </c>
@@ -5003,11 +5006,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>28</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>0</v>
       </c>
       <c r="C177" t="s">
@@ -5029,11 +5032,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>8</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>1</v>
       </c>
       <c r="C178" t="s">
@@ -5055,11 +5058,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>28</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>1</v>
       </c>
       <c r="C179" t="s">
@@ -5081,11 +5084,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>8</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>0</v>
       </c>
       <c r="C180" t="s">
@@ -5107,11 +5110,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>8</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>1</v>
       </c>
       <c r="C181" t="s">
@@ -5133,11 +5136,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>28</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>1</v>
       </c>
       <c r="C182" t="s">
@@ -5159,11 +5162,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>28</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>0</v>
       </c>
       <c r="C183" t="s">
@@ -5185,11 +5188,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>28</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>1</v>
       </c>
       <c r="C184" t="s">
@@ -5211,11 +5214,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>8</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>0</v>
       </c>
       <c r="C185" t="s">
@@ -5237,11 +5240,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>8</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1</v>
       </c>
       <c r="C186" t="s">
@@ -5263,11 +5266,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>8</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>0</v>
       </c>
       <c r="C187" t="s">
@@ -5289,11 +5292,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>28</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>0</v>
       </c>
       <c r="C188" t="s">
@@ -5315,11 +5318,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>8</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>0</v>
       </c>
       <c r="C189" t="s">
@@ -5341,11 +5344,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>28</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1</v>
       </c>
       <c r="C190" t="s">
@@ -5367,11 +5370,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>28</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>1</v>
       </c>
       <c r="C191" t="s">
@@ -5393,11 +5396,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>8</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>1</v>
       </c>
       <c r="C192" t="s">
@@ -5419,11 +5422,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>28</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>0</v>
       </c>
       <c r="C193" t="s">
@@ -5445,17 +5448,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>8</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1</v>
       </c>
       <c r="C194" t="s">
         <v>32</v>
       </c>
-      <c r="D194"/>
       <c r="E194" t="s">
         <v>21</v>
       </c>
@@ -5469,17 +5471,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>8</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>0</v>
       </c>
       <c r="C195" t="s">
         <v>23</v>
       </c>
-      <c r="D195"/>
       <c r="E195" t="s">
         <v>21</v>
       </c>
@@ -5493,11 +5494,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>28</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>0</v>
       </c>
       <c r="C196" t="s">
@@ -5519,11 +5520,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>8</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1</v>
       </c>
       <c r="C197" t="s">
@@ -5545,11 +5546,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>8</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>0</v>
       </c>
       <c r="C198" t="s">
@@ -5571,11 +5572,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>28</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1</v>
       </c>
       <c r="C199" t="s">
@@ -5597,11 +5598,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>28</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>1</v>
       </c>
       <c r="C200" t="s">
@@ -5623,11 +5624,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>28</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>0</v>
       </c>
       <c r="C201" t="s">
@@ -5651,6 +5652,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>